--- a/약품/result_drug_table.xlsx
+++ b/약품/result_drug_table.xlsx
@@ -1,34 +1,212 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Doyeon\Desktop\기프 프로젝트\약품\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9615D287-F3AD-4AC4-BEFD-CC059668161E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="4590" yWindow="4080" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="결과 테이블" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="결과 테이블" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="54">
+  <si>
+    <t>성분 1</t>
+  </si>
+  <si>
+    <t>성분 2</t>
+  </si>
+  <si>
+    <t>내용</t>
+  </si>
+  <si>
+    <t>Aluminum Flufenamate</t>
+  </si>
+  <si>
+    <t>NSAIDs/NSAIDs임상효과: 두 약물의 병용투여시 위장관 궤양과 출혈 등 중증의 위장관계 이상반응의 발생 위험이 증가될 수 있으며, 신기능이 감소될 수도 있다.기전: 두 약물의 병용투여시 NSAIDs 부작용에 대한 상가 또는 상승 작용이 나타날 수 있다.처치: 두 약물은 병용투여하지 않는다. 다만, 국내 병용금기 약물이 아닌 경우 부득이하게 병용투여를 피할 수 없다면, 환자의 임상상태를 주의깊게 모니터링 하여야 하며, 약물의 독성이 나타나면 투여를 중지하는 등 적절한 조치를 취한다.</t>
+  </si>
+  <si>
+    <t>Cinnoxicam</t>
+  </si>
+  <si>
+    <t>Clonixin Lysinate</t>
+  </si>
+  <si>
+    <t>Diclofenac β-dimethylaminoethanol</t>
+  </si>
+  <si>
+    <t>Emorfazone</t>
+  </si>
+  <si>
+    <t>Enfenamic Acid</t>
+  </si>
+  <si>
+    <t>Ketoprofen Lysinate</t>
+  </si>
+  <si>
+    <t>Pyrazinobutazone</t>
+  </si>
+  <si>
+    <t>Sulpyrine Calcium</t>
+  </si>
+  <si>
+    <t>Talniflumate</t>
+  </si>
+  <si>
+    <t>Carbenicillin</t>
+  </si>
+  <si>
+    <t>Chloramphenicol Stearate</t>
+  </si>
+  <si>
+    <t>Penicillins/Chloramphenicol임상효과: 두 약물의 병용투여시 특정 미생물의 치료에서는 상승작용이 나타났지만, 동물실험에서의 길항작용 또한 보고되었다.기전: 정확한 상호작용 기전은 밝혀지지 않았다.처치: 두 약물의 병용투여시 특별한 임상적 간섭은 필요하지 않다.</t>
+  </si>
+  <si>
+    <t>Doxycycline Guaiacolsulfonate</t>
+  </si>
+  <si>
+    <t>Penicillins/Tetracyclines임상효과: 두 약물의 병용투여시 페니실린계 약물의 약리학적 효과 및 치료 효과가 감약될 수 있다.기전: 테트라사이클린계 약물의 정균 작용이 페니실린계 약물의 살균작용을 방해할 수 있다.처치: 두 약물의 병용투여는 피하는 것이 바람직하다.</t>
+  </si>
+  <si>
+    <t>Doxycycline Polyphosphate Sodium</t>
+  </si>
+  <si>
+    <t>Erythromycin Stinoprate</t>
+  </si>
+  <si>
+    <t>Penicillins/Macrolide Antibiotics(Erythromycin)임상효과: 두 약물의 병용치료효과는 예측하기 어렵다.기전: 정확한 상호작용 기전은 밝혀지지 않았다.처치: 두 약물의 병용투여시 특별한 임상적 간섭은 필요하지 않다.</t>
+  </si>
+  <si>
+    <t>Tetracycline Guaiacolsulfonate</t>
+  </si>
+  <si>
+    <t>Dexamethasone Palmitate</t>
+  </si>
+  <si>
+    <t>Magnesium Aluminum Hydrate</t>
+  </si>
+  <si>
+    <t>Corticosteroids/Antacids임상효과: 두 약물의 병용투여시 덱사메타손의 약리학적 효과가 감소할 수 있다.기전: 정확한 상호작용 기전은 밝혀지지 않았다.처치: 두 약물의 병용투여시에는 표준적인 모니터링 절차를 따라야 한다. 덱사메타손의 약리학적 효과에 대해서는 자세히 모니터링 하는것이 바람직하며, 시메티딘(Cimetidine) 같은 H₂-수용체 길항제는 이러한 제산제에 대한 적절한 대체요법이 될 수 있다.</t>
+  </si>
+  <si>
+    <t>Dexamethasone Pivalate</t>
+  </si>
+  <si>
+    <t>Dexamethasone Propionate</t>
+  </si>
+  <si>
+    <t>Dexamethasone Valerate</t>
+  </si>
+  <si>
+    <t>Alendronate Sodium Monohydrate</t>
+  </si>
+  <si>
+    <t>NSAIDs/Bisphosphonates임상효과: 두 약물의 병용투여시 위궤양의 위험이 증가할 수 있다.기전: 두 약물은 위궤양을 유발하는 데 있어 상승적인 작용을 할 수 있다.처치: 두 약물의 병용투여시에는 관찰을 충분히 하고, 신중히 투여해야 한다. 환자에게 위장관계 부작용, 특히 위궤양이 발생하는지를 주의깊게 모니터링해야 한다.</t>
+  </si>
+  <si>
+    <t>Sodium Acetate Anhydrous</t>
+  </si>
+  <si>
+    <t>Tetracyclines/Urinary Alkalinizers임상효과: 두 약물의 병용투여시 테트라사이클린계 약물의 배설이 증가되어 약물의 혈청 농도 및 치료 효과가 감소할 수 있다. 이러한 의견과 반대되는 다른 보고들도 있다.기전: 두 약물의 병용투여시 뇨 알칼리화제에 의한 염기성 뇨 때문에 테트라사이클린계 약물의 세뇨관 재흡수가 영향을 받을 수 있으며, 위의 pH가 증가되어 테트라사이클린계 약물의 흡수가 감소될 수 있다. 이것은 낮은 생체 이용률을 가지는 제형들에서 중요한 문제가 될 수 있다.처치: 두 제제를 함께 사용할 때에는 최소 3-4시간의 복용 간격을 둔다. 하지만, 만약 뇨 알칼리화제에 의해 뇨의 pH가 증가한다면, 테트라사이클린(Tetracycline)의 용량을 증가시킬 필요가 있을 수도 있다.</t>
+  </si>
+  <si>
+    <t>Sodium Citrate Anhydrous</t>
+  </si>
+  <si>
+    <t>Gentamicin</t>
+  </si>
+  <si>
+    <t>Cefoperazone Dihydrate</t>
+  </si>
+  <si>
+    <t>Aminoglycosides/Cephalosporins임상효과: 두 약물의 병용투여시 신장독성의 위험성이 증가할 수 있으며, 또한 몇몇 병원체에 대한 살균력이 강화될 수 있다.기전: 정확한 상호작용 기전은 밝혀지지 않았다.처치: 두 약물의 병용투여시에는 아미노글리코시드계 약물의 수치와 신장 기능을 자세히 모니터링해야 한다. 만약 신기능 장애가 발견되면, 하나 또는 두 약물 모두 용량을 감량하거나 복용을 중단하고 다른 대체제제를 사용하도록 한다.</t>
+  </si>
+  <si>
+    <t>Cefotaxime</t>
+  </si>
+  <si>
+    <t>Ceftazidime Dihydrochloride Monohydrate</t>
+  </si>
+  <si>
+    <t>Ceftazidime Hydrochloride</t>
+  </si>
+  <si>
+    <t>Aminoglycosides/NSAIDs임상효과: 두 약물의 병용투여시 아미노글리코시드계 약물의 혈중농도가 증가할 수 있다.기전: NSAIDs(비스테로이드성 항염증제)는 사구체 여과속도를 감소시켜 아미노글리코시드계 약물의 축적을 유발할 수 있다.처치: 가능하면 이 두 약물의 병용은 피해야 한다. 부득이하게 두 약물의 병용을 피할 수 없다면, NSAIDs의 투약을 시작하기 전에 아미노글리코시드계 약물의 용량을 감소시켜야 한다. 신기능과 아미노글리코시드계 약물의 혈청 농도를 모니터링 해야 하며, 이에 따라 아미노글리코시드계 약물의 용량을 조절한다.</t>
+  </si>
+  <si>
+    <t>Hydrocortisone Aceponate</t>
+  </si>
+  <si>
+    <t>Kanamycin</t>
+  </si>
+  <si>
+    <t>Kanamycin Tanninate</t>
+  </si>
+  <si>
+    <t>Neomycin Palmitate</t>
+  </si>
+  <si>
+    <t>Perphenazine Hydrochloride</t>
+  </si>
+  <si>
+    <t>N-Methylscopolamine Methylsulfate</t>
+  </si>
+  <si>
+    <t>Phenothiazines/Anticholinergics임상효과: 두 약물의 병용투여시 중추 작용성 항콜린제에 의해 페노치아진계 약물의 치료 효과가 감소할 수 있다.기전: 항콜린제는 직접적으로 중추신경에 작용하여 페노치아진계 약물 효과에 길항할 수 있으며, 또한 항콜린제에 의해 페노치아진계 약물의 위장 대사가 가속화 될 수도 있다.처치: 두 약물의 병용투여시에는 관찰을 충분히 하고 신중히 투여해야 하며, 필요하다면 페노치아진계 약물의 용량을 조절해야 한다.</t>
+  </si>
+  <si>
+    <t>Prednisolone Farnesylate</t>
+  </si>
+  <si>
+    <t>Prednisolone Valeroacetate</t>
+  </si>
+  <si>
+    <t>Quinapril</t>
+  </si>
+  <si>
+    <t>ACE Inhibitors/Phenothiazines임상효과: 두 약물의 병용투여시 ACE(안지오텐신 전환효소) 저해제의 약리학적효과가 감소할 수 있다.기전: 두 약물의 병용투여시 상가 또는 상승 작용이 나타날 수 있다.처치: 두 약물의 병용투여시에는 관찰을 충분히 하고, 신중히 투여해야 한다.  만약 고혈압이 유발되면, 보조적인 치료를 행해야 한다.</t>
+  </si>
+  <si>
+    <t>Verapamil</t>
+  </si>
+  <si>
+    <t>Calcium Channel Blockers(Verapamil)/Macrolide Antibiotics임상효과: 두 약물의 병용투여시 심독성의 위험이 증가할 수 있다.기전: CYP3A4에 의해 대사되는 마크로라이드계 항생제와 CYP3A4 저해 작용을 가진 베라파밀의 병용투여시 마크로라이드계 항생제의 대사가 저해되어 이 약물의 혈중 농도 및 작용이 증가될 수 있다. 특히 P-당단백(P-glycoprotein)과 에리스로마이신(Erythromycin)의 대사(CYP3A4)는 베라파밀에 의해 억제됨으로써 에리스로마이신의 흡수가 증가한다.처치: 두 약물의 병용투여시에는 환자의 심장 기능을 주의깊게 모니터링 해야 한다.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +225,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,19 +527,1623 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>34</v>
+      </c>
+      <c r="B76" t="s">
+        <v>35</v>
+      </c>
+      <c r="C76" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>34</v>
+      </c>
+      <c r="B77" t="s">
+        <v>37</v>
+      </c>
+      <c r="C77" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>34</v>
+      </c>
+      <c r="B78" t="s">
+        <v>38</v>
+      </c>
+      <c r="C78" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>34</v>
+      </c>
+      <c r="B79" t="s">
+        <v>39</v>
+      </c>
+      <c r="C79" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>34</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>34</v>
+      </c>
+      <c r="B81" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>41</v>
+      </c>
+      <c r="B82" t="s">
+        <v>24</v>
+      </c>
+      <c r="C82" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>42</v>
+      </c>
+      <c r="B83" t="s">
+        <v>35</v>
+      </c>
+      <c r="C83" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>42</v>
+      </c>
+      <c r="B84" t="s">
+        <v>37</v>
+      </c>
+      <c r="C84" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>42</v>
+      </c>
+      <c r="B85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C85" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>42</v>
+      </c>
+      <c r="B86" t="s">
+        <v>39</v>
+      </c>
+      <c r="C86" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>42</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>42</v>
+      </c>
+      <c r="B88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>43</v>
+      </c>
+      <c r="B89" t="s">
+        <v>35</v>
+      </c>
+      <c r="C89" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>43</v>
+      </c>
+      <c r="B90" t="s">
+        <v>37</v>
+      </c>
+      <c r="C90" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>43</v>
+      </c>
+      <c r="B91" t="s">
+        <v>38</v>
+      </c>
+      <c r="C91" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92" t="s">
+        <v>39</v>
+      </c>
+      <c r="C92" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>43</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>43</v>
+      </c>
+      <c r="B94" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" t="s">
+        <v>29</v>
+      </c>
+      <c r="C95" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>44</v>
+      </c>
+      <c r="B106" t="s">
+        <v>35</v>
+      </c>
+      <c r="C106" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>44</v>
+      </c>
+      <c r="B107" t="s">
+        <v>37</v>
+      </c>
+      <c r="C107" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>44</v>
+      </c>
+      <c r="B108" t="s">
+        <v>38</v>
+      </c>
+      <c r="C108" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>44</v>
+      </c>
+      <c r="B109" t="s">
+        <v>39</v>
+      </c>
+      <c r="C109" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>45</v>
+      </c>
+      <c r="B110" t="s">
+        <v>46</v>
+      </c>
+      <c r="C110" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>48</v>
+      </c>
+      <c r="B111" t="s">
+        <v>24</v>
+      </c>
+      <c r="C111" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>49</v>
+      </c>
+      <c r="B112" t="s">
+        <v>24</v>
+      </c>
+      <c r="C112" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>11</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>11</v>
+      </c>
+      <c r="B120" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>11</v>
+      </c>
+      <c r="B122" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>50</v>
+      </c>
+      <c r="B123" t="s">
+        <v>45</v>
+      </c>
+      <c r="C123" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>12</v>
+      </c>
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>12</v>
+      </c>
+      <c r="B125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>12</v>
+      </c>
+      <c r="B126" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>12</v>
+      </c>
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>12</v>
+      </c>
+      <c r="B130" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>12</v>
+      </c>
+      <c r="B131" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>13</v>
+      </c>
+      <c r="B134" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>13</v>
+      </c>
+      <c r="B135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>13</v>
+      </c>
+      <c r="B136" t="s">
+        <v>6</v>
+      </c>
+      <c r="C136" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>13</v>
+      </c>
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>13</v>
+      </c>
+      <c r="B138" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>13</v>
+      </c>
+      <c r="B139" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>13</v>
+      </c>
+      <c r="B140" t="s">
+        <v>10</v>
+      </c>
+      <c r="C140" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>13</v>
+      </c>
+      <c r="B141" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>13</v>
+      </c>
+      <c r="B143" t="s">
+        <v>13</v>
+      </c>
+      <c r="C143" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>22</v>
+      </c>
+      <c r="B144" t="s">
+        <v>31</v>
+      </c>
+      <c r="C144" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>22</v>
+      </c>
+      <c r="B145" t="s">
+        <v>33</v>
+      </c>
+      <c r="C145" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>52</v>
+      </c>
+      <c r="B146" t="s">
+        <v>20</v>
+      </c>
+      <c r="C146" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>